--- a/Modelos/eAtasOrais.English.xlsx
+++ b/Modelos/eAtasOrais.English.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JRD soluções\eAtasOrais\Modelos\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\GitHub\eAtasOrais\eAtasOrais\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAAA1C2-E958-4A48-967B-B2687C5B28D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00713E-DD46-4CB7-9B0C-BB1DA5197D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5256D096-7C5A-4AEA-804E-C7AE48760200}"/>
   </bookViews>
@@ -753,16 +753,91 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,26 +849,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,16 +903,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,112 +942,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,49 +997,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>79073</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>113775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>441324</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>112795</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAB72DE-DB3A-4533-8D47-E5C2394A2C3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="1739" t="5780" r="86739" b="34498"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="79073" y="113775"/>
-          <a:ext cx="1581451" cy="941995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1112,23 +1069,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>285868</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34887</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CA00E2-93C9-4804-93A0-3DACF221E635}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445AFB77-E8E5-4086-A1E0-ACD206875678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,19 +1094,32 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="66675"/>
-          <a:ext cx="6286500" cy="847843"/>
+          <a:off x="190499" y="123824"/>
+          <a:ext cx="1063588" cy="1019176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1460,7 +1430,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,13 +1456,13 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -1510,11 +1480,11 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="85"/>
     </row>
     <row r="3" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1534,9 +1504,9 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
@@ -1556,82 +1526,82 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="78"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="58" t="s">
+      <c r="M5" s="86"/>
+      <c r="N5" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="61"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="90"/>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="62" t="s">
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="74" t="s">
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="72"/>
-      <c r="S6" s="71" t="s">
+      <c r="R6" s="70"/>
+      <c r="S6" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="72"/>
+      <c r="T6" s="70"/>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="76"/>
       <c r="G7" s="3">
         <v>1</v>
@@ -1663,17 +1633,17 @@
       <c r="P7" s="4">
         <v>10</v>
       </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="52"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="72"/>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -1685,20 +1655,20 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="77" t="str">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="31" t="str">
         <f>IF(G8 = ""," ", SUM(G8:R8))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T8" s="78"/>
+      <c r="T8" s="32"/>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
@@ -1710,20 +1680,20 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="79" t="str">
+      <c r="Q9" s="38"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="33" t="str">
         <f t="shared" ref="S9:S27" si="0">IF(G9 = ""," ", SUM(G9:R9))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T9" s="80"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -1735,20 +1705,20 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="77" t="str">
+      <c r="Q10" s="37"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T10" s="78"/>
+      <c r="T10" s="32"/>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
@@ -1760,20 +1730,20 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="79" t="str">
+      <c r="Q11" s="38"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T11" s="80"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
@@ -1785,20 +1755,20 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="77" t="str">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T12" s="78"/>
+      <c r="T12" s="32"/>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
@@ -1810,20 +1780,20 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="79" t="str">
+      <c r="Q13" s="38"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T13" s="80"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -1835,20 +1805,20 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="77" t="str">
+      <c r="Q14" s="37"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T14" s="78"/>
+      <c r="T14" s="32"/>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
@@ -1860,20 +1830,20 @@
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="79" t="str">
+      <c r="Q15" s="38"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T15" s="80"/>
+      <c r="T15" s="34"/>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
@@ -1885,20 +1855,20 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="77" t="str">
+      <c r="Q16" s="37"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T16" s="78"/>
+      <c r="T16" s="32"/>
     </row>
     <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
@@ -1910,20 +1880,20 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="25"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="79" t="str">
+      <c r="Q17" s="38"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T17" s="80"/>
+      <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
@@ -1935,20 +1905,20 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="77" t="str">
+      <c r="Q18" s="37"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T18" s="78"/>
+      <c r="T18" s="32"/>
     </row>
     <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
@@ -1960,20 +1930,20 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="79" t="str">
+      <c r="Q19" s="38"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T19" s="80"/>
+      <c r="T19" s="34"/>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -1985,20 +1955,20 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="77" t="str">
+      <c r="Q20" s="37"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T20" s="78"/>
+      <c r="T20" s="32"/>
     </row>
     <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
@@ -2010,20 +1980,20 @@
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="25"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="79" t="str">
+      <c r="Q21" s="38"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T21" s="80"/>
+      <c r="T21" s="34"/>
     </row>
     <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
@@ -2035,20 +2005,20 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="77" t="str">
+      <c r="Q22" s="37"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T22" s="78"/>
+      <c r="T22" s="32"/>
     </row>
     <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
@@ -2060,20 +2030,20 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="25"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="79" t="str">
+      <c r="Q23" s="38"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T23" s="80"/>
+      <c r="T23" s="34"/>
     </row>
     <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
@@ -2085,20 +2055,20 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="77" t="str">
+      <c r="Q24" s="37"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T24" s="78"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
@@ -2110,20 +2080,20 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="79" t="str">
+      <c r="Q25" s="38"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T25" s="80"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
@@ -2135,20 +2105,20 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="77" t="str">
+      <c r="Q26" s="37"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T26" s="78"/>
+      <c r="T26" s="32"/>
     </row>
     <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
@@ -2160,27 +2130,27 @@
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="100" t="str">
+      <c r="Q27" s="48"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T27" s="99"/>
+      <c r="T27" s="36"/>
     </row>
     <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2193,26 +2163,26 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="35" t="s">
+      <c r="G29" s="95"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2223,26 +2193,26 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2253,30 +2223,30 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="31">
+      <c r="B31" s="40"/>
+      <c r="C31" s="43">
         <v>6</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="43">
+      <c r="D31" s="44"/>
+      <c r="E31" s="99">
         <v>8</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="99">
         <v>4</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="43">
         <v>8</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="31" t="s">
+      <c r="H31" s="44"/>
+      <c r="I31" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="32"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2287,18 +2257,18 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="34"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="42"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2309,30 +2279,30 @@
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="31">
+      <c r="B33" s="44"/>
+      <c r="C33" s="43">
         <v>6</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="43">
+      <c r="D33" s="44"/>
+      <c r="E33" s="99">
         <v>9</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="99">
         <v>2</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="43">
         <v>15</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="91" t="s">
+      <c r="H33" s="44"/>
+      <c r="I33" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="92"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2343,18 +2313,18 @@
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="34"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="42"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -2366,31 +2336,58 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="A6:E7"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="I29:L30"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="A33:B34"/>
@@ -2407,58 +2404,31 @@
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="I29:L30"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="A6:E7"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S12:T12"/>
   </mergeCells>
   <conditionalFormatting sqref="S8:T27">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
